--- a/indicadores/tablas/330102.xlsx
+++ b/indicadores/tablas/330102.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -75,12 +75,6 @@
     <t xml:space="preserve">Seguridad Social</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accesibilidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
@@ -103,6 +97,18 @@
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de mayores de 65 años que no cobran pensiones ni pensiones / Cantidad total de personas mayores de 65 años)*100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
   </si>
 </sst>
 </file>
@@ -624,6 +630,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/indicadores/tablas/330102.xlsx
+++ b/indicadores/tablas/330102.xlsx
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/330102.xlsx
+++ b/indicadores/tablas/330102.xlsx
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/330102.xlsx
+++ b/indicadores/tablas/330102.xlsx
@@ -78,25 +78,25 @@
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Mayores de 65 años sin pensión ni jubilación</t>
+    <t xml:space="preserve">Mayores de 60 años sin pensión ni jubilación y que no participan del mercado de trabajo</t>
   </si>
   <si>
     <t xml:space="preserve">NOMINDICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Porcentaje de mayores de 65 años que no perciben jubilaciones ni pensiones</t>
+    <t xml:space="preserve">Porcentaje de mayores de 60 años que no perciben jubilaciones ni pensiones y que no participan del mercado de trabajo</t>
   </si>
   <si>
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide el porcentaje de mayores de 65 años que no perciben pensiones ni pensiones.</t>
+    <t xml:space="preserve">El indicador mide el porcentaje de mayores de 60 años inactivos (que no participan del mercado de trabajo) que no perciben jubilaciones ni pensiones.</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
   </si>
   <si>
-    <t xml:space="preserve">Para cada año calcular: (Cantidad de mayores de 65 años que no cobran pensiones ni pensiones / Cantidad total de personas mayores de 65 años)*100</t>
+    <t xml:space="preserve">Para cada año calcular: (Cantidad de mayores de 60 años inactivos que no cobran pensiones ni pensiones / Cantidad total de personas mayores de 60 años)*100</t>
   </si>
   <si>
     <t xml:space="preserve">TIPOIND</t>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>9.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>9.7</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="7">
@@ -493,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>8.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>8.2</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="9">
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>7.9</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="10">
@@ -517,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>7.9</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="11">
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>7.8</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="12">
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>7.3</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="13">
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="14">
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
